--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>59.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -953,14 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -969,14 +1034,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -985,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.21</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1289,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1305,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1352,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.21</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="5">
@@ -1289,14 +1384,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -1305,14 +1400,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -1321,13 +1416,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
+++ b/数据整理/stocks/A股/深证主板/002105-信隆健康.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0624</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5943</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>40.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1974</t>
+          <t>1.2133</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +798,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6692</t>
+          <t>0.6867</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +825,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -782,26 +1062,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.86</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6520</t>
+          <t>0.6786</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,26 +1156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6786</t>
+          <t>0.6520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -903,177 +1183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4409</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9524</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1100,7 +1210,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1140,26 +1250,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.99</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2133</t>
+          <t>1.1974</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1178,120 +1288,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6867</t>
+          <t>0.6692</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5894</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1305,144 +1321,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.66</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>